--- a/excel para informe general 2025.xlsx
+++ b/excel para informe general 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Informe General 2025 Fedemoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AFDA21-5413-48D0-BD95-01C5D371C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4A4258-0654-40E4-AE64-E7A6F961B342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" firstSheet="3" activeTab="6" xr2:uid="{B1CB30AE-B166-4A9A-8B1B-04F41309F4E9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="648" firstSheet="1" activeTab="2" xr2:uid="{B1CB30AE-B166-4A9A-8B1B-04F41309F4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Velotierra 1er semestre" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="110">
   <si>
     <t>Master</t>
   </si>
@@ -546,6 +546,9 @@
       </rPr>
       <t>CESAR</t>
     </r>
+  </si>
+  <si>
+    <t>Supermoto</t>
   </si>
 </sst>
 </file>
@@ -2698,17 +2701,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3824,17 +3827,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3842,15 +3845,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF52D57F-C646-4375-B778-25E7D209645B}">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AB54"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -3864,55 +3867,51 @@
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H1" s="26"/>
       <c r="I1" s="26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J1" s="26"/>
       <c r="K1" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="26"/>
       <c r="M1" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="26"/>
       <c r="Q1" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R1" s="26"/>
       <c r="S1" s="26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="V1" s="26"/>
       <c r="W1" s="26" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="X1" s="26"/>
       <c r="Y1" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z1" s="26"/>
       <c r="AA1" s="26" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="26"/>
-    </row>
-    <row r="2" spans="1:30" ht="17.399999999999999">
+    </row>
+    <row r="2" spans="1:28" ht="17.399999999999999">
       <c r="A2" s="1">
         <v>737</v>
       </c>
@@ -3932,64 +3931,64 @@
         <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>626</v>
+        <v>758</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1">
+        <v>726</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>230</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>207</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
         <v>758</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1">
+      <c r="Q2" s="1">
+        <v>424</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1">
+        <v>251</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1">
+        <v>681</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1">
         <v>726</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <v>230</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1">
-        <v>207</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>758</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="1">
-        <v>424</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="1">
-        <v>251</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="1">
-        <v>681</v>
-      </c>
       <c r="X2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" s="1">
-        <v>726</v>
+        <v>98</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
         <v>98</v>
@@ -3997,14 +3996,8 @@
       <c r="AB2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="1">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="17.399999999999999">
+    </row>
+    <row r="3" spans="1:28" ht="17.399999999999999">
       <c r="A3" s="1">
         <v>604</v>
       </c>
@@ -4024,79 +4017,73 @@
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>35</v>
+        <v>294</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
-        <v>294</v>
+        <v>207</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
-        <v>207</v>
+        <v>710</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1">
-        <v>710</v>
+        <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q3" s="1">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U3" s="1">
-        <v>398</v>
+        <v>726</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>255</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="1">
-        <v>726</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="Y3" s="1">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="1">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>227</v>
-      </c>
-      <c r="AD3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="17.399999999999999">
+    <row r="4" spans="1:28" ht="17.399999999999999">
       <c r="A4" s="1">
         <v>320</v>
       </c>
@@ -4116,79 +4103,73 @@
         <v>5</v>
       </c>
       <c r="G4" s="1">
-        <v>716</v>
+        <v>138</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1">
-        <v>398</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
-        <v>88</v>
+        <v>619</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="1">
-        <v>619</v>
+        <v>312</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" s="1">
-        <v>312</v>
+        <v>710</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U4" s="1">
-        <v>710</v>
+        <v>28</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W4" s="1">
+        <v>214</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>207</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
         <v>28</v>
       </c>
-      <c r="X4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>214</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>207</v>
-      </c>
       <c r="AB4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="17.399999999999999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="17.399999999999999">
       <c r="A5" s="1">
         <v>783</v>
       </c>
@@ -4208,79 +4189,73 @@
         <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>527</v>
+        <v>140</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
-        <v>88</v>
+        <v>251</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="1">
-        <v>251</v>
+        <v>155</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O5" s="1">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Q5" s="1">
-        <v>68</v>
+        <v>255</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S5" s="1">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="1">
+        <v>98</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>28</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>166</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="1">
-        <v>172</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="1">
-        <v>98</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="AA5" s="1">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>81</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="17.399999999999999">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="17.399999999999999">
       <c r="A6" s="1">
         <v>55</v>
       </c>
@@ -4300,52 +4275,52 @@
         <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>629</v>
+        <v>316</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="1">
-        <v>316</v>
+        <v>626</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>626</v>
+        <v>227</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>227</v>
+        <v>166</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="1">
+        <v>39</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>344</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="1">
+        <v>230</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
-        <v>166</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>39</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S6" s="1">
-        <v>344</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="U6" s="1">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W6" s="1">
         <v>424</v>
@@ -4354,25 +4329,19 @@
         <v>4</v>
       </c>
       <c r="Y6" s="1">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>155</v>
-      </c>
-      <c r="AD6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="17.399999999999999">
+    <row r="7" spans="1:28" ht="17.399999999999999">
       <c r="A7" s="1">
         <v>662</v>
       </c>
@@ -4392,79 +4361,73 @@
         <v>25</v>
       </c>
       <c r="G7" s="1">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>931</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="1">
+        <v>407</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>205</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="1">
+        <v>227</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
-        <v>103</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="U7" s="1">
+        <v>721</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1">
+        <v>205</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="1">
         <v>28</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>45</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="1">
-        <v>931</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>407</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="1">
-        <v>205</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="1">
-        <v>227</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="W7" s="1">
-        <v>721</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>205</v>
-      </c>
       <c r="Z7" s="2" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="AA7" s="1">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>243</v>
-      </c>
-      <c r="AD7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="17.399999999999999">
+    <row r="8" spans="1:28" ht="17.399999999999999">
       <c r="A8" s="1">
         <v>168</v>
       </c>
@@ -4484,79 +4447,73 @@
         <v>11</v>
       </c>
       <c r="G8" s="1">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>832</v>
+        <v>424</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="1">
+        <v>968</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="1">
+        <v>64</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="1">
+        <v>254</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1">
-        <v>424</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1">
-        <v>968</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="1">
-        <v>64</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="Q8" s="1">
-        <v>254</v>
+        <v>579</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="S8" s="1">
-        <v>579</v>
+        <v>968</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="U8" s="1">
-        <v>968</v>
+        <v>207</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>674</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W8" s="1">
-        <v>207</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="Y8" s="1">
-        <v>674</v>
+        <v>155</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="1">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>166</v>
-      </c>
-      <c r="AD8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="17.399999999999999">
+    <row r="9" spans="1:28" ht="17.399999999999999">
       <c r="A9" s="1">
         <v>804</v>
       </c>
@@ -4576,79 +4533,73 @@
         <v>18</v>
       </c>
       <c r="G9" s="1">
-        <v>280</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1">
+        <v>107</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>385</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>227</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
-        <v>39</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="O9" s="1">
+        <v>364</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>518</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="1">
+        <v>45</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="1">
-        <v>107</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1">
-        <v>385</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="1">
-        <v>227</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>364</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="1">
-        <v>518</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="U9" s="1">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="W9" s="1">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="1">
-        <v>312</v>
+        <v>931</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA9" s="1">
-        <v>931</v>
+        <v>528</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>528</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="17.399999999999999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="17.399999999999999">
       <c r="A10" s="1">
         <v>747</v>
       </c>
@@ -4668,79 +4619,73 @@
         <v>26</v>
       </c>
       <c r="G10" s="1">
-        <v>718</v>
+        <v>407</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1">
-        <v>407</v>
+        <v>145</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>799</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
+        <v>41</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>845</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>517</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="1">
+        <v>799</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="1">
+        <v>680</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="1">
+        <v>382</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="1">
         <v>145</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="Z10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="1">
-        <v>799</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" s="1">
-        <v>41</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>845</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>517</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U10" s="1">
-        <v>799</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="1">
-        <v>680</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>382</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="AA10" s="1">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>133</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="17.399999999999999">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="17.399999999999999">
       <c r="A11" s="1">
         <v>307</v>
       </c>
@@ -4760,52 +4705,52 @@
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>826</v>
+        <v>246</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I11" s="1">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>81</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>107</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="1">
+        <v>832</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>323</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>38</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U11" s="1">
+        <v>421</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="K11" s="1">
-        <v>227</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>81</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>107</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>832</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="1">
-        <v>323</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="1">
-        <v>38</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="W11" s="1">
         <v>421</v>
@@ -4814,25 +4759,19 @@
         <v>11</v>
       </c>
       <c r="Y11" s="1">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AA11" s="1">
-        <v>171</v>
+        <v>829</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>829</v>
-      </c>
-      <c r="AD11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="17.399999999999999">
+    <row r="12" spans="1:28" ht="17.399999999999999">
       <c r="A12" s="1">
         <v>847</v>
       </c>
@@ -4852,79 +4791,73 @@
         <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I12" s="1">
-        <v>784</v>
+        <v>155</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1">
-        <v>155</v>
+        <v>507</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>243</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>842</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="1">
-        <v>507</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>243</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="Q12" s="1">
-        <v>842</v>
+        <v>34</v>
       </c>
       <c r="R12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="1">
+        <v>595</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>214</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="1">
+        <v>16</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="1">
-        <v>34</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="1">
-        <v>595</v>
-      </c>
-      <c r="V12" s="2" t="s">
+      <c r="AA12" s="1">
+        <v>989</v>
+      </c>
+      <c r="AB12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W12" s="1">
-        <v>214</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>16</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>41</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>989</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="17.399999999999999">
+    </row>
+    <row r="13" spans="1:28" ht="17.399999999999999">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -4940,79 +4873,73 @@
         <v>3</v>
       </c>
       <c r="G13" s="1">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I13" s="1">
-        <v>338</v>
+        <v>758</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K13" s="1">
-        <v>758</v>
+        <v>297</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>146</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="1">
+        <v>846</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="1">
-        <v>297</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O13" s="1">
-        <v>146</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="Q13" s="1">
-        <v>846</v>
+        <v>726</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S13" s="1">
-        <v>726</v>
+        <v>385</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U13" s="1">
-        <v>385</v>
+        <v>626</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>626</v>
+        <v>323</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="1">
-        <v>323</v>
+        <v>107</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AA13" s="1">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>88</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="17.399999999999999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="17.399999999999999">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -5028,75 +4955,69 @@
         <v>24</v>
       </c>
       <c r="G14" s="1">
-        <v>517</v>
+        <v>239</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>239</v>
+        <v>522</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="1">
-        <v>522</v>
+        <v>744</v>
       </c>
       <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>723</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>858</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="1">
-        <v>744</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="1">
-        <v>723</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>858</v>
-      </c>
-      <c r="R14" s="2" t="s">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="1">
+        <v>333</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="1">
+        <v>227</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>615</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>528</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>372</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S14" s="1"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="1">
-        <v>333</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" s="1">
-        <v>227</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>615</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>528</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>372</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="17.399999999999999">
+    </row>
+    <row r="15" spans="1:28" ht="17.399999999999999">
       <c r="C15" s="1">
         <v>701</v>
       </c>
@@ -5110,69 +5031,63 @@
         <v>24</v>
       </c>
       <c r="G15" s="1">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I15" s="1">
-        <v>229</v>
+        <v>41</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>885</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>680</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="1">
+        <v>631</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="1">
-        <v>41</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="1">
-        <v>885</v>
-      </c>
-      <c r="N15" s="2" t="s">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="1">
+        <v>133</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="1">
+        <v>47</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>243</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>256</v>
+      </c>
+      <c r="AB15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O15" s="1">
-        <v>680</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>631</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="1"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="1">
-        <v>133</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>47</v>
-      </c>
-      <c r="Z15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>243</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>256</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="17.399999999999999">
+    </row>
+    <row r="16" spans="1:28" ht="17.399999999999999">
       <c r="C16" s="1">
         <v>168</v>
       </c>
@@ -5186,69 +5101,63 @@
         <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>138</v>
+        <v>846</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1">
-        <v>846</v>
+        <v>166</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="1">
-        <v>166</v>
+        <v>595</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>595</v>
+        <v>726</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <v>343</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="1">
+        <v>786</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="1">
+        <v>557</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>723</v>
+      </c>
+      <c r="Z16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O16" s="1">
-        <v>726</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>343</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="1">
-        <v>786</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>557</v>
-      </c>
-      <c r="Z16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="AA16" s="1">
-        <v>723</v>
+        <v>75</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>75</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:28" ht="17.399999999999999">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" ht="17.399999999999999">
       <c r="C17" s="1">
         <v>267</v>
       </c>
@@ -5262,57 +5171,51 @@
         <v>6</v>
       </c>
       <c r="G17" s="1">
-        <v>236</v>
+        <v>292</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>78</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>829</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="1">
-        <v>38</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1">
-        <v>78</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="1">
-        <v>829</v>
+        <v>346</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>346</v>
-      </c>
-      <c r="R17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="1">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="1">
         <v>165</v>
       </c>
-      <c r="V17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="1">
+      <c r="T17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="1">
         <v>194</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:28" ht="17.399999999999999">
+      <c r="Z17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" ht="17.399999999999999">
       <c r="C18" s="1">
         <v>518</v>
       </c>
@@ -5326,55 +5229,49 @@
         <v>24</v>
       </c>
       <c r="G18" s="1">
-        <v>258</v>
+        <v>524</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1">
-        <v>524</v>
+        <v>710</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K18" s="1">
-        <v>710</v>
+        <v>491</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M18" s="1">
-        <v>491</v>
+        <v>941</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O18" s="1">
-        <v>941</v>
+        <v>784</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>784</v>
-      </c>
-      <c r="R18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U18" s="1">
+      <c r="S18" s="1">
         <v>44</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="Y18" s="1">
         <v>626</v>
       </c>
-      <c r="AB18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:28" ht="17.399999999999999">
+    <row r="19" spans="3:26" ht="17.399999999999999">
       <c r="C19" s="1">
         <v>725</v>
       </c>
@@ -5388,55 +5285,49 @@
         <v>11</v>
       </c>
       <c r="G19" s="1">
-        <v>49</v>
+        <v>965</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I19" s="1">
-        <v>965</v>
+        <v>236</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
+        <v>578</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="1">
-        <v>236</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="M19" s="1">
-        <v>578</v>
+        <v>419</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O19" s="1">
-        <v>419</v>
+        <v>284</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>284</v>
-      </c>
-      <c r="R19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U19" s="1">
+      <c r="S19" s="1">
         <v>78</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="Y19" s="1">
         <v>137</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="3:28" ht="17.399999999999999">
+      <c r="Z19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" ht="17.399999999999999">
       <c r="E20" s="1">
         <v>615</v>
       </c>
@@ -5444,55 +5335,49 @@
         <v>4</v>
       </c>
       <c r="G20" s="1">
-        <v>272</v>
+        <v>619</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I20" s="1">
-        <v>619</v>
+        <v>137</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M20" s="1">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>28</v>
+        <v>817</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="1">
-        <v>817</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="S20" s="1">
         <v>297</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="Y20" s="1">
         <v>845</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" ht="17.399999999999999">
+      <c r="Z20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" ht="17.399999999999999">
       <c r="E21" s="1">
         <v>493</v>
       </c>
@@ -5500,761 +5385,742 @@
         <v>26</v>
       </c>
       <c r="G21" s="1">
-        <v>707</v>
+        <v>261</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1">
-        <v>261</v>
+        <v>723</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>723</v>
+        <v>677</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>710</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="1">
+        <v>294</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" s="1">
+        <v>27</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>434</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" ht="17.399999999999999">
+      <c r="G22" s="1">
+        <v>128</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="1">
-        <v>677</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="I22" s="1">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>44</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>254</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="1">
+        <v>627</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="1">
+        <v>578</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>829</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="1">
-        <v>710</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>294</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="U21" s="1">
-        <v>27</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>434</v>
-      </c>
-      <c r="AB21" s="2" t="s">
+    </row>
+    <row r="23" spans="3:26" ht="17.399999999999999">
+      <c r="G23" s="1">
+        <v>717</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" ht="17.399999999999999">
-      <c r="G22" s="1">
-        <v>221</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1">
-        <v>128</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="I23" s="1">
+        <v>721</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="1">
-        <v>64</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="1">
-        <v>44</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="1">
-        <v>254</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>627</v>
-      </c>
-      <c r="R22" s="2" t="s">
+      <c r="K23" s="1">
+        <v>217</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U22" s="1">
-        <v>578</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>829</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="3:28" ht="17.399999999999999">
-      <c r="G23" s="1">
-        <v>255</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1">
-        <v>717</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="1">
-        <v>721</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="1">
-        <v>217</v>
+        <v>758</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="O23" s="1">
-        <v>758</v>
+        <v>246</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="1">
-        <v>246</v>
-      </c>
-      <c r="R23" s="2" t="s">
+      <c r="S23" s="1">
+        <v>56</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="1">
+    </row>
+    <row r="24" spans="3:26" ht="17.399999999999999">
+      <c r="G24" s="1">
+        <v>631</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1">
+        <v>479</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>305</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1">
+        <v>145</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>515</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="1">
+        <v>178</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" ht="17.399999999999999">
+      <c r="G25" s="1">
+        <v>755</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="1">
         <v>56</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" ht="17.399999999999999">
-      <c r="I24" s="1">
-        <v>631</v>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="K25" s="1">
+        <v>27</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1">
+        <v>626</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="1">
+        <v>338</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>169</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" ht="17.399999999999999">
+      <c r="G26" s="1">
+        <v>729</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="1">
+        <v>440</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="1">
+        <v>56</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K24" s="1">
+      <c r="M26" s="1">
+        <v>137</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="1">
+        <v>377</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" ht="17.399999999999999">
+      <c r="G27" s="1">
+        <v>919</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1">
+        <v>680</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1">
+        <v>38</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="1">
         <v>479</v>
       </c>
-      <c r="L24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1">
-        <v>305</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="1">
-        <v>145</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="N27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="1">
+        <v>374</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" ht="17.399999999999999">
+      <c r="G28" s="1">
+        <v>254</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1">
+        <v>521</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="1">
+        <v>786</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="1">
+        <v>169</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>229</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" ht="17.399999999999999">
+      <c r="G29" s="1">
+        <v>687</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1">
+        <v>610</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
+        <v>133</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="1">
+        <v>610</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="1">
+        <v>308</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" ht="17.399999999999999">
+      <c r="G30" s="1">
+        <v>963</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1">
+        <v>528</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1">
+        <v>602</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1">
+        <v>38</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O30" s="1">
+        <v>717</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" ht="17.399999999999999">
+      <c r="G31" s="1">
+        <v>830</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" s="1">
+        <v>210</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>327</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>547</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="1">
+        <v>830</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" ht="17.399999999999999">
+      <c r="G32" s="1">
+        <v>343</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="I32" s="1">
+        <v>720</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>284</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>316</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="7:16" ht="17.399999999999999">
+      <c r="G33" s="1">
+        <v>308</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="1">
+        <v>434</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="1">
+        <v>528</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="1">
+        <v>266</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="7:16" ht="17.399999999999999">
+      <c r="G34" s="1">
+        <v>503</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1">
+        <v>419</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="1">
+        <v>194</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O34" s="1">
+        <v>729</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="7:16" ht="17.399999999999999">
+      <c r="G35" s="1">
+        <v>423</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1">
+        <v>429</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="1">
+        <v>966</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="1">
+        <v>113</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="7:16" ht="17.399999999999999">
+      <c r="G36" s="1">
+        <v>290</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>427</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>522</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="7:16" ht="17.399999999999999">
+      <c r="G37" s="1">
+        <v>162</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I37" s="1">
+        <v>517</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="7:16" ht="17.399999999999999">
+      <c r="G38" s="1">
+        <v>349</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1">
+        <v>243</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="7:16" ht="17.399999999999999">
+      <c r="G39" s="1">
+        <v>673</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I39" s="1">
+        <v>127</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" ht="17.399999999999999">
+      <c r="G40" s="1">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>276</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" ht="17.399999999999999">
+      <c r="G41" s="1">
+        <v>266</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1">
+        <v>941</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="7:16" ht="17.399999999999999">
+      <c r="G42" s="1">
+        <v>377</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42" s="1">
+        <v>146</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="7:16" ht="17.399999999999999">
+      <c r="G43" s="1">
         <v>515</v>
       </c>
-      <c r="R24" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U24" s="1">
-        <v>178</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" ht="17.399999999999999">
-      <c r="I25" s="1">
-        <v>755</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" s="1">
-        <v>56</v>
-      </c>
-      <c r="L25" s="2" t="s">
+      <c r="I43" s="1">
+        <v>547</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="7:16" ht="17.399999999999999">
+      <c r="G44" s="1">
+        <v>125</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>966</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="7:16" ht="17.399999999999999">
+      <c r="G45" s="1">
+        <v>858</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="1">
+        <v>681</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="7:16" ht="17.399999999999999">
+      <c r="G46" s="1">
+        <v>481</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I46" s="1">
+        <v>194</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="7:16" ht="17.399999999999999">
+      <c r="G47" s="1">
+        <v>374</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="7:16" ht="17.399999999999999">
+      <c r="G48" s="1">
+        <v>115</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="17.399999999999999">
+      <c r="G49" s="1">
+        <v>842</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" ht="17.399999999999999">
+      <c r="G50" s="1">
+        <v>346</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" ht="17.399999999999999">
+      <c r="G51" s="1">
+        <v>845</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" ht="17.399999999999999">
+      <c r="G52" s="1">
+        <v>627</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="1">
-        <v>27</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O25" s="1">
-        <v>626</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>338</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U25" s="1">
-        <v>169</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="3:28" ht="17.399999999999999">
-      <c r="I26" s="1">
-        <v>729</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="1">
-        <v>440</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="1">
-        <v>56</v>
-      </c>
-      <c r="N26" s="2" t="s">
+    </row>
+    <row r="53" spans="7:8" ht="17.399999999999999">
+      <c r="G53" s="1">
+        <v>724</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="1">
-        <v>137</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>377</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" ht="17.399999999999999">
-      <c r="I27" s="1">
-        <v>919</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="1">
-        <v>680</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="1">
-        <v>38</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="1">
-        <v>479</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>374</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" ht="17.399999999999999">
-      <c r="I28" s="1">
-        <v>254</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="1">
-        <v>521</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="1">
-        <v>786</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O28" s="1">
-        <v>169</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>229</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:28" ht="17.399999999999999">
-      <c r="I29" s="1">
-        <v>687</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="1">
-        <v>610</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="1">
-        <v>133</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="1">
-        <v>610</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>308</v>
-      </c>
-      <c r="R29" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="3:28" ht="17.399999999999999">
-      <c r="I30" s="1">
-        <v>963</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>528</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="1">
-        <v>602</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O30" s="1">
-        <v>38</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>717</v>
-      </c>
-      <c r="R30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:28" ht="17.399999999999999">
-      <c r="I31" s="1">
-        <v>830</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="1">
-        <v>210</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="1">
-        <v>327</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O31" s="1">
-        <v>547</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>830</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="3:28" ht="17.399999999999999">
-      <c r="I32" s="1">
-        <v>343</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="1">
-        <v>720</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="1">
-        <v>284</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>316</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="9:18" ht="17.399999999999999">
-      <c r="I33" s="1">
-        <v>308</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="1">
-        <v>434</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="1">
-        <v>528</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>266</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="9:18" ht="17.399999999999999">
-      <c r="I34" s="1">
-        <v>503</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="1">
-        <v>419</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O34" s="1">
-        <v>194</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>729</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="9:18" ht="17.399999999999999">
-      <c r="I35" s="1">
-        <v>423</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" s="1">
-        <v>429</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O35" s="1">
-        <v>966</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>113</v>
-      </c>
-      <c r="R35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="9:18" ht="17.399999999999999">
-      <c r="I36" s="1">
-        <v>290</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="1">
-        <v>427</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O36" s="1">
-        <v>522</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="9:18" ht="17.399999999999999">
-      <c r="I37" s="1">
-        <v>162</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="1">
-        <v>517</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="9:18" ht="17.399999999999999">
-      <c r="I38" s="1">
-        <v>349</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="1">
-        <v>243</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="9:18" ht="17.399999999999999">
-      <c r="I39" s="1">
-        <v>673</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="1">
-        <v>127</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="9:18" ht="17.399999999999999">
-      <c r="I40" s="1">
-        <v>8</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" s="1">
-        <v>276</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="9:18" ht="17.399999999999999">
-      <c r="I41" s="1">
-        <v>266</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="1">
-        <v>941</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="9:18" ht="17.399999999999999">
-      <c r="I42" s="1">
-        <v>377</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K42" s="1">
-        <v>146</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="9:18" ht="17.399999999999999">
-      <c r="I43" s="1">
-        <v>515</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K43" s="1">
-        <v>547</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="9:18" ht="17.399999999999999">
-      <c r="I44" s="1">
-        <v>125</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="1">
-        <v>966</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="9:18" ht="17.399999999999999">
-      <c r="I45" s="1">
-        <v>858</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K45" s="1">
-        <v>681</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="9:18" ht="17.399999999999999">
-      <c r="I46" s="1">
-        <v>481</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K46" s="1">
-        <v>194</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="9:18" ht="17.399999999999999">
-      <c r="I47" s="1">
-        <v>374</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="9:18" ht="17.399999999999999">
-      <c r="I48" s="1">
-        <v>115</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" ht="17.399999999999999">
-      <c r="I49" s="1">
-        <v>842</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="9:10" ht="17.399999999999999">
-      <c r="I50" s="1">
-        <v>346</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="9:10" ht="17.399999999999999">
-      <c r="I51" s="1">
-        <v>845</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" ht="17.399999999999999">
-      <c r="I52" s="1">
-        <v>627</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="9:10" ht="17.399999999999999">
-      <c r="I53" s="1">
-        <v>724</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" ht="17.399999999999999">
-      <c r="I54" s="1">
+    </row>
+    <row r="54" spans="7:8" ht="17.399999999999999">
+      <c r="G54" s="1">
         <v>19</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="14">
+    <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8158,12 +8024,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AD1"/>
@@ -8173,6 +8033,12 @@
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13991,12 +13857,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="AW1:AX1"/>
+    <mergeCell ref="AY1:AZ1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
@@ -14009,14 +13877,12 @@
     <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AW1:AX1"/>
-    <mergeCell ref="AY1:AZ1"/>
-    <mergeCell ref="AK1:AL1"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
-    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15574,18 +15440,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15595,7 +15461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D271D9-FD61-427F-B9A7-5F605743F367}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -17143,18 +17009,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:V1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
